--- a/altmetrics/presen/mid_200625/charts.xlsx
+++ b/altmetrics/presen/mid_200625/charts.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Science誌</t>
   </si>
   <si>
-    <t xml:space="preserve">累積</t>
+    <t xml:space="preserve">YT動画数</t>
   </si>
 </sst>
 </file>
@@ -35,11 +35,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,6 +56,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>累積</c:v>
+                  <c:v>YT動画数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,6 +217,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -327,11 +335,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87479776"/>
-        <c:axId val="31173607"/>
+        <c:axId val="69451202"/>
+        <c:axId val="56941628"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87479776"/>
+        <c:axId val="69451202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,14 +374,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31173607"/>
+        <c:crossAx val="56941628"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31173607"/>
+        <c:axId val="56941628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +396,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -417,7 +425,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87479776"/>
+        <c:crossAx val="69451202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -430,16 +438,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -458,25 +456,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>270720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>721080</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="0" name="年度別Science誌論稿関連動画数"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7585920" y="1071000"/>
-        <a:ext cx="8579520" cy="5823360"/>
+        <a:off x="11556720" y="1807200"/>
+        <a:ext cx="4366080" cy="5087160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -497,12 +495,12 @@
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,8 +696,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/altmetrics/presen/mid_200625/charts.xlsx
+++ b/altmetrics/presen/mid_200625/charts.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Science誌</t>
+    <t xml:space="preserve">論稿言及</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他の言及</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新規YT動画数</t>
   </si>
   <si>
     <t xml:space="preserve">YT動画数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差</t>
   </si>
 </sst>
 </file>
@@ -35,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
@@ -60,7 +69,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,7 +169,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -170,7 +194,7 @@
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -198,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>시트1!$C$3</c:f>
+              <c:f>시트1!$E$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -280,7 +304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>시트1!$C$4:$C$18</c:f>
+              <c:f>시트1!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -335,11 +359,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="69451202"/>
-        <c:axId val="56941628"/>
+        <c:axId val="78105424"/>
+        <c:axId val="65996497"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69451202"/>
+        <c:axId val="78105424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,14 +398,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56941628"/>
+        <c:crossAx val="65996497"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56941628"/>
+        <c:axId val="65996497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69451202"/>
+        <c:crossAx val="78105424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -452,20 +476,489 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Science誌url言及YT動画数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>論稿言及</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>시트1!$A$4:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>その他の言及</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>시트1!$A$4:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="49716048"/>
+        <c:axId val="34221915"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49716048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34221915"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34221915"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49716048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>355320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>721080</xdr:colOff>
+      <xdr:colOff>720720</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -473,12 +966,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11556720" y="1807200"/>
-        <a:ext cx="4366080" cy="5087160"/>
+        <a:off x="11289960" y="1807200"/>
+        <a:ext cx="4270680" cy="5086800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="年度別Science誌論稿関連動画数"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4635720" y="0"/>
+        <a:ext cx="6136560" cy="6253560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -492,23 +1015,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:C18"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,16 +1059,38 @@
         <f aca="false">SUM($B$4:B4)</f>
         <v>0</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">SUM($D$4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">D4-B4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">SUM($B$4:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">SUM($D$4:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">D5-B5</f>
         <v>1</v>
       </c>
     </row>
@@ -540,11 +1099,22 @@
         <v>2007</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">SUM($B$4:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">SUM($D$4:D6)</f>
         <v>7</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">D6-B6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,11 +1122,22 @@
         <v>2008</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">SUM($B$4:B7)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">SUM($D$4:D7)</f>
         <v>43</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">D7-B7</f>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,11 +1145,22 @@
         <v>2009</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">SUM($B$4:B8)</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">SUM($D$4:D8)</f>
         <v>94</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">D8-B8</f>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,11 +1168,22 @@
         <v>2010</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">SUM($B$4:B9)</f>
+        <v>63</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">SUM($D$4:D9)</f>
         <v>158</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">D9-B9</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,11 +1191,22 @@
         <v>2011</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">SUM($B$4:B10)</f>
+        <v>125</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">SUM($D$4:D10)</f>
         <v>271</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">D10-B10</f>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,11 +1214,22 @@
         <v>2012</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">SUM($B$4:B11)</f>
+        <v>209</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUM($D$4:D11)</f>
         <v>478</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">D11-B11</f>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,11 +1237,22 @@
         <v>2013</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">SUM($B$4:B12)</f>
+        <v>346</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">SUM($D$4:D12)</f>
         <v>788</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">D12-B12</f>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,11 +1260,22 @@
         <v>2014</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">SUM($B$4:B13)</f>
+        <v>556</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">SUM($D$4:D13)</f>
         <v>1208</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">D13-B13</f>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,11 +1283,22 @@
         <v>2015</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>557</v>
+        <v>253</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM($B$4:B14)</f>
+        <v>809</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>557</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">SUM($D$4:D14)</f>
         <v>1765</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">D14-B14</f>
+        <v>304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,11 +1306,22 @@
         <v>2016</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>973</v>
+        <v>300</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">SUM($B$4:B15)</f>
+        <v>1109</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>973</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">SUM($D$4:D15)</f>
         <v>2738</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">D15-B15</f>
+        <v>673</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,11 +1329,22 @@
         <v>2017</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1414</v>
+        <v>504</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">SUM($B$4:B16)</f>
+        <v>1613</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1414</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">SUM($D$4:D16)</f>
         <v>4152</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">D16-B16</f>
+        <v>910</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,11 +1352,22 @@
         <v>2018</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2194</v>
+        <v>784</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">SUM($B$4:B17)</f>
+        <v>2397</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2194</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">SUM($D$4:D17)</f>
         <v>6346</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">D17-B17</f>
+        <v>1410</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,11 +1375,22 @@
         <v>2019</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2223</v>
+        <v>1270</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">SUM($B$4:B18)</f>
+        <v>3667</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2223</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">SUM($D$4:D18)</f>
         <v>8569</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">D18-B18</f>
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -696,8 +1398,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12페이지 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
